--- a/notes/power_calculations.xlsx
+++ b/notes/power_calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikola\Documents\Altium\Altium Projekti\NG_Diplomski-rad_Altium\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B941BD8-4A45-4A95-9292-A0F1E6E8450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E606A27-4C29-457B-8279-9A9C1590FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,17 +118,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -416,33 +416,33 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -462,208 +462,208 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>2.3E-3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>60</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>320</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>50</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>1.25</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>25</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>100</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.65</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>82</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>350</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>500</v>
       </c>
-      <c r="G8" s="5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <f>SUM(B3:B8)</f>
         <v>14.2523</v>
       </c>
-      <c r="C10" s="5">
-        <f t="shared" ref="C10:G11" si="0">SUM(C3:C8)</f>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:D10" si="0">SUM(C3:C8)</f>
         <v>168.45</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>830</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <f>(100/$C$14)*(3.3/5)*B10</f>
         <v>10.006934042553191</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:D11" si="1">(100/$C$14)*(3.3/5)*C10</f>
         <v>118.27340425531912</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>582.76595744680844</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <f>SUM(E3:E8)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <f>SUM(F3:F8)</f>
         <v>500</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <f>SUM(G3:G8)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -671,7 +671,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -679,12 +679,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="5">
+      <c r="C14" s="2">
         <v>94</v>
       </c>
       <c r="D14" s="1"/>
@@ -692,7 +692,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -700,7 +700,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -708,7 +708,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -716,7 +716,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -724,7 +724,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -732,7 +732,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>

--- a/notes/power_calculations.xlsx
+++ b/notes/power_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikola\Documents\Altium\Altium Projekti\NG_Diplomski-rad_Altium\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E606A27-4C29-457B-8279-9A9C1590FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2941C50-3558-4FB7-B806-011A7DC4535B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,15 +640,15 @@
       </c>
       <c r="B11" s="2">
         <f>(100/$C$14)*(3.3/5)*B10</f>
-        <v>10.006934042553191</v>
+        <v>11.066491764705882</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ref="C11:D11" si="1">(100/$C$14)*(3.3/5)*C10</f>
-        <v>118.27340425531912</v>
+        <v>130.79647058823528</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>582.76595744680844</v>
+        <f>(100/$C$14)*(3.3/3.7)*D10</f>
+        <v>870.90620031796504</v>
       </c>
       <c r="E11" s="2">
         <f>SUM(E3:E8)</f>
@@ -685,7 +685,7 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
